--- a/test3-function-control-options/dssim.xlsx
+++ b/test3-function-control-options/dssim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="27520" windowHeight="17160" tabRatio="500"/>
+    <workbookView xWindow="5940" yWindow="3360" windowWidth="27520" windowHeight="17160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ddsim-optimized.tsv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="1349">
   <si>
     <t>File</t>
   </si>
@@ -4063,13 +4063,16 @@
   </si>
   <si>
     <t>1200 MEDIAN</t>
+  </si>
+  <si>
+    <t>NOGIF MEAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4102,6 +4105,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -4206,7 +4217,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4260,8 +4271,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4278,8 +4295,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4306,6 +4326,9 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4332,6 +4355,9 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4661,11 +4687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S163"/>
+  <dimension ref="A1:S165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="R3" sqref="R3:S149"/>
+      <pane ySplit="2" topLeftCell="A127" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13597,6 +13623,56 @@
       </c>
       <c r="S163" s="7"/>
     </row>
+    <row r="165" spans="1:19">
+      <c r="A165" s="16" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B165" s="17">
+        <f>AVERAGE(B3:B38,B48:B87,B97:B136,B146:B149)</f>
+        <v>1.4401191666666667E-2</v>
+      </c>
+      <c r="C165" s="16"/>
+      <c r="D165" s="17">
+        <f>AVERAGE(D3:D38,D48:D87,D97:D136,D146:D149)</f>
+        <v>1.5123583333333336E-2</v>
+      </c>
+      <c r="E165" s="16"/>
+      <c r="F165" s="17">
+        <f>AVERAGE(F3:F38,F48:F87,F97:F136,F146:F149)</f>
+        <v>1.5123583333333336E-2</v>
+      </c>
+      <c r="G165" s="16"/>
+      <c r="H165" s="17">
+        <f>AVERAGE(H3:H38,H48:H87,H97:H136,H146:H149)</f>
+        <v>1.5548191666666667E-2</v>
+      </c>
+      <c r="I165" s="16"/>
+      <c r="J165" s="17">
+        <f>AVERAGE(J3:J38,J48:J87,J97:J136,J146:J149)</f>
+        <v>1.7534741666666669E-2</v>
+      </c>
+      <c r="K165" s="16"/>
+      <c r="L165" s="17">
+        <f>AVERAGE(L3:L38,L48:L87,L97:L136,L146:L149)</f>
+        <v>3.4450325000000004E-2</v>
+      </c>
+      <c r="M165" s="16"/>
+      <c r="N165" s="17">
+        <f>AVERAGE(N3:N38,N48:N87,N97:N136,N146:N149)</f>
+        <v>3.1929916666666641E-2</v>
+      </c>
+      <c r="O165" s="16"/>
+      <c r="P165" s="17">
+        <f>AVERAGE(P3:P38,P48:P87,P97:P136,P146:P149)</f>
+        <v>4.0021274999999981E-2</v>
+      </c>
+      <c r="Q165" s="16"/>
+      <c r="R165" s="17">
+        <f>AVERAGE(R3:R38,R48:R87,R97:R136,R146:R149)</f>
+        <v>1.027460525</v>
+      </c>
+      <c r="S165" s="18"/>
+    </row>
   </sheetData>
   <sortState ref="A3:S149">
     <sortCondition ref="C3:C149"/>
